--- a/op.xlsx
+++ b/op.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,58 +375,2546 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67.80231475830078</v>
+        <v>0.0009197557810693979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69.81718444824219</v>
+        <v>0.003682831069454551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>72.0340576171875</v>
+        <v>0.008295021951198578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>74.86009216308594</v>
+        <v>0.01476223394274712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>78.00582885742188</v>
+        <v>0.02309049665927887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>82.08843231201172</v>
+        <v>0.0332859493792057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04535483196377754</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05930354818701744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.07513858377933502</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.09286656230688095</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1124942302703857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1340284794569016</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1574762761592865</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.182844802737236</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2101413011550903</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2393730878829956</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2705478668212891</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3036732077598572</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3387570083141327</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.375807136297226</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4148316979408264</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4558390378952026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4988375604152679</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5438356995582581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5908423066139221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6398662328720093</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6909164190292358</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7440022826194763</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7991330027580261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8563181161880493</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9155672788619995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9768906831741333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.040298223495483</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.105800032615662</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.173406720161438</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.243128895759583</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.314977169036865</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.388962984085083</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.465097069740295</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.543391346931458</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.623857021331787</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.70650577545166</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.791350603103638</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.878403306007385</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.967675924301147</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.059181690216064</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.152933120727539</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.248944759368896</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.347228050231934</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.447798490524292</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.55066967010498</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.655854940414429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.763369560241699</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.873227834701538</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.985445976257324</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.100038051605225</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.217020511627197</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.336409091949463</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.458218574523926</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.58246898651123</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.709174633026123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.838351726531982</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.970021486282349</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.10419750213623</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.240901947021484</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.380151748657227</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.521964073181152</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.666362285614014</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.813363075256348</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.962987899780273</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5.115257263183594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5.270189762115479</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.427810668945312</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5.588141441345215</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.751200675964355</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.917015075683594</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6.085606098175049</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.256997585296631</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6.431213855743408</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.608282089233398</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.788224697113037</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6.971068859100342</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7.156836986541748</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.34556245803833</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.537271976470947</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7.731990337371826</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.929749011993408</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>8.130576133728027</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8.334503173828125</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8.541558265686035</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.751778602600098</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8.965192794799805</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9.181832313537598</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>9.401736259460449</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9.624936103820801</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>9.851467132568359</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>10.08136749267578</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>10.31467247009277</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10.55142021179199</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10.79165554046631</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>11.03541374206543</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11.28273773193359</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.53366661071777</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11.78824710845947</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>12.04652309417725</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>12.30854225158691</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12.57435035705566</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.8439884185791</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>13.11752033233643</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>13.39498710632324</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>13.67644214630127</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>13.96194267272949</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>14.25153923034668</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>14.54529476165771</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>14.84326267242432</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>15.1455078125</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.45208549499512</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>15.76306629180908</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>16.07851600646973</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>16.39850234985352</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>16.72308349609375</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>17.05235481262207</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>17.3863697052002</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>17.72521209716797</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>18.06896781921387</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>18.41771697998047</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>18.77153205871582</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>19.13051605224609</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>19.49474906921387</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>19.86433029174805</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.23935890197754</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.61993598937988</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>21.00615501403809</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>21.39813232421875</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>21.79597854614258</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22.1998119354248</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22.6097526550293</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>23.02591896057129</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23.44845008850098</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>23.87748336791992</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>24.31315422058105</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>24.75559997558594</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>25.20498847961426</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>25.66147804260254</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.12522506713867</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>26.59640693664551</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.07521820068359</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.56182289123535</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>28.05643653869629</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>28.55925559997559</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>29.07050323486328</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>29.59040641784668</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>30.11920547485352</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30.65714836120605</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>31.20449829101562</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>31.76152420043945</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>32.32853317260742</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>32.90581130981445</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>33.49371719360352</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>34.0925407409668</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>34.70267868041992</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>35.32451248168945</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>35.95843505859375</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>36.60487365722656</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>37.2642822265625</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>37.9371452331543</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>38.62399291992188</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>39.32534408569336</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>40.04180145263672</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>40.77397155761719</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>41.52252960205078</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>42.28820037841797</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>43.07172775268555</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>43.87396621704102</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>44.69575119018555</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>45.53806686401367</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>46.51126098632812</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>47.41471862792969</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>48.34490203857422</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49.30364608764648</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>50.29303359985352</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>51.31542205810547</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>52.37345886230469</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>53.47023010253906</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>54.60923767089844</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>55.79460144042969</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>57.03118896484375</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>58.32465362548828</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>59.68195724487305</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>61.11137771606445</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>62.62326049804688</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>64.23054504394531</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>65.94969940185547</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>67.80231475830078</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>69.81718444824219</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>72.0340576171875</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>74.86009216308594</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>78.00582885742188</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>82.08843231201172</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B201" t="n">
         <v>90.64327239990234</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>116.3771286010742</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>149.6929931640625</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>40.68117523193359</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>134.3113708496094</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>94.51205444335938</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>202.5505065917969</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>87.80661010742188</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>41.6866569519043</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>118.700065612793</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6.415413856506348</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>57.15537643432617</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>72.860107421875</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>85.01286315917969</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>84.61367034912109</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>115.4902572631836</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>120.1919784545898</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>81.11832427978516</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>92.21702575683594</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>246.6494140625</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>67.11432647705078</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>141.670166015625</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>122.6496963500977</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11.2509708404541</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>29.89983940124512</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>175.3809509277344</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>237.4693145751953</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>188.2352294921875</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>248.2619476318359</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>38.32583999633789</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>140.3460693359375</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>173.0962219238281</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>153.6933898925781</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>86.48949432373047</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6.337599277496338</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>136.6127319335938</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>29.65221405029297</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>65.61616516113281</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>162.4051513671875</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>56.01388931274414</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>244.1632690429688</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>191.4462738037109</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5.595861911773682</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>245.6934509277344</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>242.0523376464844</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>126.1359939575195</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>156.7052612304688</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>241.1991119384766</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>46.0860710144043</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>222.7947692871094</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>115.1067047119141</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>99.09391021728516</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>246.1004028320312</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>59.95741653442383</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10.94246482849121</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>229.0339965820312</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>136.0760040283203</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>105.8112640380859</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>55.01890182495117</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>17.38372802734375</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>186.3762054443359</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>199.6065063476562</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>68.60301971435547</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>20.98724555969238</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>96.56250762939453</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>7.703720569610596</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>232.9258422851562</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>240.4352874755859</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>234.6239776611328</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>123.5615005493164</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>18.56882476806641</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>231.4976959228516</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>241.7763977050781</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>248.3207397460938</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>193.9430541992188</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>192.942626953125</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>244.8956451416016</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>229.7871551513672</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>225.7940521240234</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>83.18768310546875</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>21.82305335998535</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>126.6855850219727</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>177.3641967773438</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>244.9806671142578</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>27.87495231628418</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>248.3856658935547</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>248.3221740722656</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.2608393430709839</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.1729615926742554</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.08907750248908997</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.004133223555982113</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1267138868570328</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2.845243453979492</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.899999141693115</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>67.21790313720703</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>33.59035110473633</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>132.6811370849609</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>238.8236999511719</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>225.6289978027344</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>12.0501012802124</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1.552874565124512</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>7.345091342926025</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>115.8167495727539</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>147.9082794189453</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>12.01165676116943</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>199.0130920410156</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>120.5886154174805</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>54.94750213623047</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>203.0430145263672</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>226.1980743408203</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>175.3566131591797</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>129.1241607666016</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>238.3718566894531</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>239.2419586181641</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>185.3634490966797</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>98.97587585449219</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.3959129452705383</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>63.92765808105469</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.08769733458757401</v>
       </c>
     </row>
   </sheetData>
